--- a/news_data/2015_02.xlsx
+++ b/news_data/2015_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,45 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도관광협회 업종별 분과 신임 임원진 선출</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프장·관광호텔분과, 신임 임원진 선출</t>
+  </si>
+  <si>
+    <t>잘 나가는 제주도… 관광 덕에 성장세</t>
+  </si>
+  <si>
+    <t>제주도관광협회 업종별 분과위원장 선출...새얼굴은?</t>
+  </si>
+  <si>
+    <t>제주도관광협회 관광기념품업분과위원장에 신석종</t>
+  </si>
+  <si>
+    <t>제주도-道관광협회, 일본 여행사 JTB 관계자 팸투어</t>
+  </si>
+  <si>
+    <t>[차이나모닝브리핑] 中 제주도행 관광객 U턴 겨냥, 면세점규제 완화 (종합)</t>
+  </si>
+  <si>
+    <t>관광1번지 제주도, 전지훈련장으로도 각광</t>
+  </si>
+  <si>
+    <t>이보미 선수와 라운드 제주도 관광까지 '1석 2조' 한국관광공사 상품 개발</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회 회장 3선 성공…지지율 89%</t>
+  </si>
+  <si>
+    <t>제주도관광협회장 선거 김영진 현 회장 당선..."3선 안착"</t>
+  </si>
+  <si>
+    <t>제33대 제주도관광협회장 김영진 당선</t>
+  </si>
+  <si>
+    <t>제주도, 상반기 제주관광진흥기금 917억 융자지원</t>
+  </si>
+  <si>
     <t>제주도-관광협회, 스포츠 교류로 日 관광객 유치</t>
   </si>
   <si>
@@ -37,22 +76,61 @@
     <t>제주도관광협회장 첫 ‘3파전’</t>
   </si>
   <si>
+    <t>제주도관광협회장 선거 김영진 현 회장 출마 공식선언</t>
+  </si>
+  <si>
+    <t>제주도 관광협회장 첫 '3파전'</t>
+  </si>
+  <si>
     <t>제주도관광협회 회장선거 3명 입후보 3파전...본격 득표전</t>
   </si>
   <si>
     <t>제33대 제주도관광협회 회장 선거 3파전</t>
   </si>
   <si>
-    <t>제주도관광협회장 선거 김영진 현 회장 출마 공식선언</t>
-  </si>
-  <si>
-    <t>제주도 관광협회장 첫 '3파전'</t>
-  </si>
-  <si>
     <t>제주도 2∼4일 문화관광해설사 교육</t>
   </si>
   <si>
-    <t>제주도-관광협회, 스포츠 교류로 日 관광객 유치 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-관광협회, 스포츠 교류로 日 관광객 유치 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-관광협회, 스포츠 교류로 日 관광객 유치 기자명 고나연 기자 입력 2015.02.10 16:11 수정 2015.02.10 16:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주도와 도관광협회는 일본 와카야마현 아리타시에서 개최된 제7회 아리타시미캉카이도마라톤 대회에 참가해 마라톤 교류 및 일본인 관광객 대상 제주특화 레저스포츠 관광상품 판촉 로드홍보를 전개했다. 사진은 홍보부스 모습. (제주=국제뉴스) 고나연기자 = 외국인관광객 급증에도 불구하고 엔화약세, 일본 장기경기침체 등으로 일본인관광객은 지속 줄어들고 있다. 이에 제주도와 제주도관광협회가 스포츠교류를 통한 일본인 관광객유치에 나서 주목되고 있다.제주특별자치도와 道관광협회(회장 김영진)는 지난 6일부터 9일까지 일본 와카야마현 아리타시에서 개최된 제7회 아리타시미캉카이도마라톤 대회에 참가해 상호 마라톤 교류 및 일본인 관광객 대상 고부가가치 제주특화 레저스포츠 관광상품 판촉 로드홍보를 전개했다고 10일 밝혔다.제주 참가단은 아리타시관광협회와의 간담회를 통해 올해 5월31일 개최되는 제20회 제주국제관광마라톤축제 일본인 참가자 유치 확대 및 침체되는 일본인 관광객 유치를 위해 상호 적극 노력하기로 했다고 설명했다.또한 아리타시관광협회 기모토 이사는 회원사를 중심으로 제주지역 레저스포츠 패키지 상품 개발을 통해 일본인 참가자 유치 확대를 약속했다. 이와 함께 모치즈키 요시오 아리타시 시장은 시의원을 비롯한 10여명의 교류단과 함께 제20회 제주국제관광마라톤축제에 참가하겠다는 의사를 표명했다.관계자는 "앞으로 도관광협회는 침체된 일본 인바운드 시장의 조기 활성화를 위해 지속적인 스포츠 교류 확대를 벌일 예정”이라며 “이와 함께 도내 여행업계와 공동으로 한일수교 50주년 연계 상품 개발, 일본인 관광객 유치 대책 협의회 운영을 통한 다양한 마케팅 방안 등을 모색해 나갈 계획"이라고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+    <t>제주도관광협회 업종별 신임 분과임원진 선출 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 업종별 신임 분과임원진 선출 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 피플인뉴스 제주도관광협회 업종별 신임 분과임원진 선출 신동원 headlinejeju@headlinejeju.co.kr 승인 2015.02.27 11:25 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 국내여행업 등 5개 분과 위원장 및 감사 선출 (왼쪽부터)강인철 제주레저관광 대표, 정양훈 제주통나무휴양펜션 대표, 김희석 명품제주 부사장, 박지혜 이음새 대표, 고철원 곡천화원 대표. &lt;헤드라인제주&gt; 제주특별자치도관광협회(회장 김영진)는 26일 제주웰컴센터에서 업종별 분과위원회 정기총회를 갖고, 국내여행업 등 5개 분과위원회의 위원장과 감사를 각각 선출했다. &lt;헤드라인제주&gt; 다음은 새로운 분과위원회 임원. ◆국내여행업분과 △위원장=강인철(제주레저관광 대표), △감사=임영태(코믹항공여행사 대표).백남희(아름다운제주여행 대표) ◆일반숙박업분과 △위원장=정양훈(제주통나무휴양펜션 대표), △박정현(오렌지트리호텔 대표) ◆외국인관광기념품업분과 △위원장=김희석(명품제주 부사장), △이상진(호텔신라제주면세점 부점장) ◆이용시설업분과 △위원장=박지혜(이음새 대표), △감사=김선옥(제주랜드 ATV 대표) ◆사업지원분과 △위원장=고철원(곡천화원 대표), △감사=현정숙(하나C&amp;C 대표). &lt;신동원 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프장·관광호텔분과, 신임 임원진 선출 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 골프장·관광호텔분과, 신임 임원진 선출 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회 골프장·관광호텔분과, 신임 임원진 선출 기자명 김영하 기자 입력 2015.02.26 11:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 강영일(왼쪽), 송동희[제주도민일보=김영하 기자] 제주도관광협회 골프장업분과위원회와 관광호텔업분과위원회의 새 임원진이 선출됐다.두 분과위원회는 25일 제주웰컴센터 등에서 정기총회를 열고 신임 임원진을 선출했다.골프장업분과는 총회에서 위원장에 강영일 타미우스골프앤빌리지 대표를, 감사에 이승훈 에버리스골프&amp;리조트 총지배인을 선출했다.또 관광호텔업분과는 위원장에 송동희 뉴크라운관광호텔 대표를, 감사에 권기전 제주펄관광호텔 전무이사를 각각 선출했다. 김영하 기자 yhkim9356@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>잘 나가는 제주도… 관광 덕에 성장세 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 잘 나가는 제주도… 관광 덕에 성장세 입력 : 2015-02-26 18:11:36 수정 : 2015-02-26 18:11:36 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 자료제공=한국은행 올 1~2월 중 제주경제는 늘어난 설 연휴와 외국인 관광객 유입으로 성장세를 이어나가고 있다. 건설투자 역시 대규모 중국투자로 인해 증가로 전환했다. 26일 한국은행이 발간한 '지역경제보고서(BOK 골든북)'에 따르면 제주권 경기는 지난 4분기에 이어서 상승세를 지속하고 있는 것으로 조사됐다. 서비스업생산이 관광 관련 업종을 중심으로 호조를 보이고 있고 소비와 건설투자도 긍정적인 전망이 기대된다. 특히 비제조업 서비스업 기업경기실사지수를 보면 뚜렷한 차이를 볼 수 있다. 전국 업황(계절조정계열) BSI는 지난 6월 이후 65~71 사이를 오가는 반면, 제주도의 경우 78~91에서 움직이고 있다. 제주권의 생산은 서비스업이 증가세를 보인 반면 농축수산업은 노지감귤 가격 하락 등으로 감소세를 보였다. 제주권은 다른 해보다 긴 설연휴로 인해 숙박업, 도소매업, 전세버스 및 렌트카업 매출이 호조를 보였다. 실례로 설 연휴 전날인 17일 제주행 국내선 예약율은 98%, 18~19일은 100%였다. 숙박업체 예약율도 90%이상, 렌터카의 경우는 중소형차를 제외하고 예약율이 100%였다. 박진호 한은 제주본부 경제조사팀 과장은 “기본적으로 제주도는 관광 관련 서비스업 비중이 높은데 청정 자원에 대한 수요가 외국인을 중심으로 형성되고 있다”며 “단체 여행보다는 개별 여행 수요도 늘고 있고, 현재 미국인 관광객, 중국인 관광객 증가세가 가파르다”고 설명했다. 소비 역시 지난 4분기에 이어 증가세를 보였다. 박 과장은 “2010년 이후 제주도 순유입이 이뤄지고 있는데 따라 대형마트 소비가 늘고 있고 전통시장의 경우 관광객 방문이 지속되고 있어 매출이 증가하고 있다”고 밝혔다. 건설투자는 4분기 보합에서 증가로 전환됐다. 이는 인구유입에 따른 아파트 수요 증가로 인한 주거용 건물건설이 증가했고, 중국의 대규모 투자가 이뤄지는 신화역사공원 복합 리조트 착공 등 비거주용 건물건설 역시 늘고 있기 때문으로 분석됐다. 이는 한은 제주본부가 지역내 업체 및 유관기관 50개를 대상으로 실시한 지역경제 모니터링을 실시한 결과다. 한편, 타 지역의 경우 수도권과 충청권만 경기 상승세를 보이고 있고 나머지 지역은 보합세를 보였다. 김슬기 기자 ssg14@segye.com &lt;세계파이낸스&gt;세계파이낸스&gt; [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20150226005110 0101031800000 0 2015-02-26 18:11:36 2015-02-26 18:11:36 0 잘 나가는 제주도… 관광 덕에 성장세 세계파이낸스 김슬기 0028f8cc-c883-4815-9315-2c6633fff652 ssg14@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도관광협회 업종별 분과위원장 선출...새얼굴은? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 업종별 분과위원장 선출...새얼굴은? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 피플인뉴스 제주도관광협회 업종별 분과위원장 선출...새얼굴은? 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.02.25 11:59 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 장지명, 김두흥, 부동석, 고규완 등 인선 고규완 씨월드 대표,김두흥 그랜드투어 대표,부동석 중문덤장 대표,장지명 세리월드 대표 .(왼쪽부터 가나나 순).&lt;헤드라인제주&gt; 제주특별자치도관광협회(회장 김영진)는 24일 제주웰컴센터에서 업종별분과위원회 정기총회를 개최하고 4개 분과위원회의 위원장과 감사를 각각 선출했다 다음은 새로운 분과위원회 임원. ◆관광지업제2분과 △위원장=장지명(세리월드 대표), △감사=변공민(대유랜드 이사) ◆국제여행업제1분과 △위원장=김두흥(그랜드투어 대표), △김창기(서진해외여행 대표) ◆외식업분과 △위원장=부동석(중문덤장 대표), △이승재(태백산 대표) ◆관광해양레저업분과 △위원장=고규완(씨월드 대표), △감사=김광경(김녕요트투어 대표). &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도관광협회 골프장.관광호텔분과, 신임 임원진 선출 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 관광기념품업분과위원장에 신석종 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 관광기념품업분과위원장에 신석종 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회 관광기념품업분과위원장에 신석종 기자명 김영하 기자 입력 2015.02.24 18:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 신석종 대표(왼쪽), 김치현 대표[제주도민일보=김영하 기자] 제주도관광협회 관광기념품업분과 위원장에 신석종 메이드인제주 대표가 선출됐다.관광기념품업분과위원회는 지난 23일 오후 6시에 제주웰컴센터에서 정기총회를 개최해 신임 임원진 선출을 했다.이날 총회에서 위원장에 신석종 대표(메이드인제주), 감사에 김치현 덕산 전무를 선출했다. 김영하 기자 yhkim9356@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-道관광협회, 일본 여행사 JTB 관계자 팸투어 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-道관광협회, 일본 여행사 JTB 관계자 팸투어 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-道관광협회, 일본 여행사 JTB 관계자 팸투어 기자명 고나연 기자 입력 2015.02.23 16:03 수정 2015.02.23 16:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도와 道관광협회는 22일 일본 최대 여행사인 JTB 상품개발 주요 관계자를 대상으로 제주 여행상품 개발 팸투어를 실시해 일본인 관광객 유치 증진을 위한 간담회를 개최했다고 23일 밝혔다.이번 행사에서 한·일수교 50주년과 연계해 일본인 관광객 선호에 맞는 맞춤형 제주여행 관광상품 및 고부가가치 레저·스포츠 상품 개발을 위해 마라톤축제 주요코스와 도내 주요 골프장 등을 둘러봤다.이날 간담회에 참석한 JTB관계자 및 관광협회 관계자는 "일본 인바운드 시장 활성화를 위해 일본인 관광객을 대상으로 한 다양한 고부가가치 체험형 관광상품 개발을 통해 일본 인·아웃바운드 시장이 회복될 수 있도록 함께 노력해 나가기로 했다"고 밝혔다. 이에 도와 도관광협회는 침체된 일본인 관광객 유치 증진을 위해 도내 업계 등과 같이 일본 현지 여행업계 대상 세일즈 콜 및 제주관광상품 설명회를 개최하며 공격적인 현지 마케팅을 전개 해 나갈 방침이다.한편 지난해 일본인 관광객은 총 9만6519명이 제주를 찾았고 올해 1월 기준 3359명이 제주를 방문한 바 있다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[차이나모닝브리핑] 中 제주도행 관광객 U턴 겨냥, 면세점규제 완화 (종합) 닫기 전체기사 최신뉴스 GAM 라씨로 영상 영상 포토 포토 정치 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사회 사건·사고 법원·검찰 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 글로벌 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 중국 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 산업 재계·경영 전기·전자 자동차 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 증권·금융 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 부동산 정책 건설 분양 수익형부동산 전국 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화·연예 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 스포츠 해외스포츠 국내스포츠 축구 야구 골프 오피니언 오피니언 회사소개 CEO 인사말 뉴스핌은 주요상품 가치·철학 발자취 조직도 윤리강령 찾아오시는 길 사업·광고문의 사업제휴 광고문의 유료서비스 유료안내 결제서비스 안내 환불정책 고객센터 이용약관 개인정보취급방침 청소년보호정책 이메일주소수집거부 저작권규약 고충처리제도 수용자권익보호위원회 회원 로그인 아이디·비밀번호찾기 회원가입 로그인 뉴스핌제보 닫기 검색 패밀리 사이트 뉴스핌통신 PLUS 월간 ANDA 中文 안다쇼핑 ANDA 뉴스 닫기 전체메뉴 영상 포토 정치 경제 사회 글로벌 중국 산업 증권·금융 부동산 전국 문화·연예 스포츠 오피니언 #GAM #라씨로 대통령실 국회·정당 통일·외교 국방·안보 북한 한민족·다문화 경제일반 경제정책 지표 공정거래 농림수산 공기업 과학기술 사건·사고 법원·검찰 로펌 재난 교육 복지 노동 환경 교통 여성·아동 서울시 날씨 인사 부고 특파원 글로벌정치 글로벌경제 미국·북미 중남미 일본 유럽 동남아·호주 베트남 인도 중동 아프리카 러시아 동구 기타 정치 경제일반 정책 마켓·금융 산업 기업 신기술 뉴비즈 문화 피플 컬럼 한중동향 그래픽 韓流中心 재계·경영 전기·전자 자동차 ESG 항공 물류 철강 조선 화학 중공업 에너지 상사 ICT 중기·벤처 생활경제 제약·바이오 은행 증권 보험 카드 시황 주식 펀드 채권·외환 가상통화 VC 저축은행·대부업 핀테크 정책 건설 분양 수익형부동산 지자체 단체장 강원 경기남부 경기북부 부산·울산·경남 대구·경북 충북 광주·전남 대전·충남·세종 전북 인천 제주 문화일반 문화정책 공연 전시·아트 출판 종교 미디어 드라마·예능&amp;쇼 영화 가요 패션뷰티 국내 연예 해외 연예 해외스포츠 국내스포츠 축구 야구 골프 홈 중국 속보 최대 2만원 할인…토니모리, '쇼핑지원금' 프로모션[국감] "코레일·SR 감사원 자료제출, 민간인 사찰"…나희승 사장 "법이 우선"[시진핑의 뉴차이나] ⑥그날이 오면(到那時)... 르포 시진핑 전시관의 중국몽 &lt;下&gt;코오롱FnC, 첫 오프라인 행사 '더카트골프클럽' 개최[국감] 최재해 "최근 우려 잘 알아…정치적 중립 지키며 공정 감사 노력"尹대통령, 청년 껴안기 나서…"청년, 국정운영의 동반자"[부고] 박찬수(한국거래소 파생상품시장본부 상무)씨 부친상짱구·해리포터 파자마 뜬다…스파오, '파자마 페스티벌' 진행LG생활건강, 빌리프 '에이지 넉다운 밤' 점보 한정 출시[부고] 성인모(한국금융투자협회 수석전무) 부친상[국감] 최영희 "文정부, 국민연금 '스튜어드십 코드' 도입 후 기업 간섭 지속"11번가, 아마존과 인기상품 최대 45% 할인이재명 "한미일 연합훈련 즉각 중단 촉구…尹대통령, '전쟁불사' 태도 버려야"폭스바겐, 로봇경진대회 예선 참가팀 발대식…"미래인재 양성"LS그룹, KT 계열사 KT서브마린에 지분 투자[정가 인사이드] 尹대통령, 전술핵 재배치론에 "조야 의견 따져보고 있다"…의미는[국감] 김한영 철도공단 이사장 "철도수송분담률 2050년까지 30% 실현"[국감] 나희승 코레일 사장 "선제적 철도안전망 구축…경영위기 극복 노력"尹대통령, 文정부 폐지한 학업성취도 전수평가 부활 선언 미투온-미투젠, P2E 게임 '포켓배틀스 NFT War' DAU 10만 돌파 더보기 [차이나모닝브리핑] 中 제주도행 관광객 U턴 겨냥, 면세점규제 완화 (종합) 기사입력 : 2015년02월23일 10:19 최종수정 : 2015년02월23일 10:27 카카오톡 페이스북 트위터 카카오스토리 밴드 가 + 가 - 프린트 [뉴스핌=중국본부] ◆ 中 하이난다오 면세점, 제주도와 경쟁 위해 구매 제한 완화중국이 면세점 경쟁력 강화를 위해 하이난다오(海南島) 면세품목을 다양화하고 구매 제한 규정도 대폭 완화한다.중국 신경보(新京報)는 재정부, 상무부 세무총국 등 관련당국이 하이난다오 면세점의 1인당 구매 한도를 완화하고 면세품목을 17개 늘리는 내용의 새로운 규정을 확정 짓고, 3월 20일부터 시행에 들어간다고 22일 보도했다.새로운 규정에 시행되면 조제분유·커피·건강보조식품·가정용 공기청정기·가정용 의료기기 등이 추가돼 하이난다오 면세점의 면세품목이 38개로 늘어나게 된다.향수·화장품·손목시계·의류·가죽제품 등에 대한 1인당 구매 한도도 늘어난다. 현재 1인당 5개로 제한된 향수 구매량은 8개로, 화장품은 현재의 8개에서 12개로 구매 한도가 완화된다.중국이 하이난다오 면세점 구매 제한을 대폭 완화한 것은 이 지역 면세점 판매량이 애초의 계획과 달리 부진하기 때문이다.중국은 하이난다오를 관광 도시로 육성해 자국민의 해외 면세점 소비를 국내 소비 시장으로 되찾아오려고 노력하고 있다. 이를 위해 국영기업인 중국국제여행사(CITS)는 2014년 9월 하이난성 싼야(三亞)에 세계 최대 규모의 면세점을 개장하기도 했다.그러나 기대와 달리 하이난다오 면세점 실적은 한국,일본 등 주변 국가 면세점에 비해 부진하다.중국이 하이난다오 면세점 이용 장려 정책을 추진한 2011년 4월 20일부터 2014년 12월 31일까지 이 지역 면세점을 이용한 중국인 관광객은 연인원 408만 8600명으로, 전체 공항이용객의 10%에도 못 미친다. 우리나라 제주도를 찾는 관광객중 30%가 제주지역 면세점을 이용하는 것과 비교해도 큰 차이가 난다.이 기간 1인당 면세점 소비규모도 2680위안으로 면세 물품 구입 한도 8000위안의 절반도 안되는 수준이다.하이난성 재정부의 왕후이핑(王惠平) 재정청 부청장은 "내국인의 하이난다오 면세점 이용이 부진한 것은 면세 물품이 다양하지 않고, 인기품목의 경우 1인당 구매 가능 개수가 적기 때문"이라며 "이러한 문제점을 해결하기 위해 면세 품목을 늘리고 인기 품목의 구매 가능 개수도 확대했다"고 밝혔다. ◆ 설 연휴 최종 거래일 중국증시 유통시가총액 5900조원춘제(春節 설) 연휴(18일~24일) 전 마지막 거래일인 17일 상하이와 선전 증시 유통시가총액이 33조2012억 위안(약 5873조원)에 달하는 것으로 집계됐다. 이는 직전 주 마지막 거래일인 13일보다 1.90% 증가한 금액이다.17일 기준, 상하이와 선전 증시 시가총액은 39조9072억 위안(약 7045조원)으로, 13일보다 2.03% 늘었다. 상하이와 선전 양 시장의 주식 평균 가격은 10.67위안으로, 13일에 비해 1.76% 올랐다.같은기간 상하이 증시 유통시가총액은 22조3356억 위안(약 3943조원), 선전 증시 유통시가총액은 10조8656억 위안(약 1918조원)으로, 13일 대비 각각 1.51%, 2.72% 증가했다.상하이 증시 시가총액은 24조8699억 위안(약 4390조원)으로 13일보다 1.53% 늘어났고, 선전 증시 시가총액은 15조373억 위안(약 2653조원)으로 13일보다 2.86% 불어났다.상하이 증시 상장 기업은 1011개, 총 주식수는 2조7483억주, 총 유통주식수는 2조5254억주, 평균 주가수익배율(PER)은 16.16배에 달했다. 선전 증시 상장 기업은 1641개, 평균 PER은 38.17배로 나타났다.중국 A증시는 지난 9일부터 2014년 음력 마지막 거래일인 17일까지 7거래일 연속 상승세를 이어갔다.◆양회 개막 임박, 인터넷금융 관리감독 집중 논의3월 초 열리는 양회(兩會, 전국인민대표대회와 전국인민정치협상회의)에서 P2P(개인과 개인간의 거래) 대출 등 인터넷금융 관리감독 방안이 중점적으로 논의될 전망이다.인민망(人民網) 재테크 채널 보도에 따르면, P2P 온라인 대출 업계 진입 기준이 확립되지 않은 상황에서 올해는 P2P에 대한 관리감독 원년이 될 것이며 관련 업계의 규범화·시장화·법제화가 적극 추진될 것이라는 게 전문가들의 분석이다.중국 온라인금융서비스 플랫폼 왕펑(王鵬) 회장은 "기존의 온라인금융 업체들은 크게 투자·담보·대출 회사와 인터넷·IT·전자상거래 업체, 정보서비스 업체 등으로 분류된다"며 "향후 마련될 관리감독 세칙에는 플랫폼 구축 가능 시기·고객 규모·등록자금·인력자질 등에 대한 내용이 포함될 것"이라고 설명했다.중국 중앙은행 조사통계사(司) 쉬눠진(徐諾金) 부사장 역시 "(온라인금융 업계에 대해)기존의 관리감독제도를 그대로 적용할 수는 없고, 발전 공간을 남겨두어야 할 것"이라며 "그러나 인터넷금융 또한 금융의 엄숙성을 인지해야 하고 법을 저촉해서는 안 된다"고 밝혔다.전국 범위의 양회가 아직 개막하지 않은 가운데 지방 정부들은 앞서 P2P업계에 대한 지방정부 차원의 관리감독 및 제약 조치를 마련하고 있다.일례로 저장(浙江)성에서는 최근 '인터넷금융의 지속적인 건강한 발전 촉진을 위한 임시 방법'이 성(省)정부의 동의를 얻었다. 이에 따라 저장성은 제3자 감독 및 평가 메커니즘을 구축해 업계 리스크 감독 및 예비경보 시스템을 강화하고 업계 '블랙 리스트'를 마련하여 투자자들에게 정보를 제공할 방침이다.한편, 지난해 말 발표된 '중국 P2P온라인금융서비스 업계 평가 보고서'에 따르면, 2014년 말 기준 중국 온라인대출 플랫폼은 약 1600개로 집계됐으며, 이 중 2014년에 설립된 플랫폼이 900개, 등록자금 1억 위안 이상 업체는 48개로 나타났다.이에 관해 업계 인사들은 등록자금이 플랫폼의 진짜 실력을 대표할 수는 없지만, 업계 진입 문턱이 높아지고 있고 경쟁이 치열해 지면서 업계의 '물갈이'가 가속화하고 있음을 보여주는 것이라고 분석했다. [관련기사] 설 연휴전 최종 거래일 중국증시 유통시가 5900조원양회 개막 임박, 인터넷금융 관리감독 집중 논의 GAM - 해외주식 투자 도우미 [김특의 뇩멍] 스벅보다 싸고 던킨보다 맛있는 커피를 먹다 5년 새 주가 10배, 외국인이 쓸어 담는 화장품 기대주 '프로야' 라씨로 - 국내주식 투자 도우미 범한퓨얼셀, 지상 모빌리티용 연료전지 사업 확장..."글로벌 시장 확대 수혜" 코난테크놀로지, 16년 투자한 SK커뮤니케이션즈…락업 물량 20% 풀린다 [뉴스핌 베스트 기사] 사진 北 리설주, 김정은과 군사훈련 '이례적' 동행…핵무력 자신감 표출 [서울=뉴스핌] 이영태 기자 = 북한 김정은 노동당 총비서 겸 국무위원장 부인 리설주 여사가 김 위원장이 직접 지휘했다는 지난 보름간의 북한의 탄도미사일 시험발사 현장에 모습을 드러낸 것으로 10일 확인됐다. 북한 관영 조선중앙통신과 조선노동당 기관지 노동신문은 노동당 창건 77주년 기념일인 이날 "경애하는 김정은 동지께서 조선인민군 전술 핵운용 부대들의 군사훈련을 지도했다"면서 김 위원장이 북한군 전술핵운용부대·장거리포병부대·공군비행대의 훈련을 직접 지휘했다고 보도했다. 북한 김정은 국무위원장 부인 리설주 여사가 지난달 29일부터 보름간 진행된 전술핵운용부대 군사훈련을 김 위원장과 함께 참관했다고 북한 노동신문과 조선중앙통신이 10일 보도했다. 리 여사는 지난 2013년 6월과 2016년 12월 김 위원장의 공군 부대 훈련 참관에 동행한 바 있다. 2022.10.10 [사진=노동신문] 북한 언론들은 기사와 함께 리 여사가 김 위원장과 둘이서 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 사진 한 장을 공개했다. 사진은 KN-25가 점화되는 순간에 촬영된 듯 김 위원장은 왼손에 담배 한 개비를 들고 얼굴을 살짝 일그러뜨린 채 엄지손가락으로 귀를 막고 있고, 리 여사 역시 바로 옆에서 표정을 한껏 찡그리고 귀를 막는 모습을 담았다. 북한 언론이 최고지도자 부부가 귀를 막는 사진을 특별히 선택해 실은 것은 초대형 방사포 등의 위력을 강조하려는 의도가 담긴 것으로 풀이된다. 리 여사는 북한이 3대 세습 정당화로 내세운 '백두혈통'의 상징인 백두산 백마 등정으로부터 '선대 수령'의 시신이 있는 금수산태양궁전 참배, 열병식 사열 등 주요 행사 때 남편과 동행했으나, 미사일을 발사하는 군사훈련 현장에 동행한 것은 이례적이다. 전문가들 사이에선 공직을 맡고 있지 않은 리 여사의 이례적 군사훈련 참관과 동행은 북한이 자신들의 핵능력에 대한 자신감을 표출함과 동시에, 이번 도발이 단순한 '시험발사' 수준을 넘어서는 군사행보임을 보여주기 위한 것이라는 평가가 나온다. 북한은 그에게 '여사' 또는 '동지'라는 호칭을 쓰며 퍼스트레이디의 지위를 확실히 했다. medialyt@newspim.com 2022-10-10 14:04 사진 "급매물도 아직 비싸"…내집마련 수요 아직 '머뭇' [서울=뉴스핌] 최현민 기자 = 부동산 시장 침체기로 집값이 하락세를 보이자 급매물이 쏟아지고 있지만 수요자들은 내집 마련에 선뜻 나서지 못하고 있다. 문재인 정부 기간 집값이 급등한 탓에 여전히 비정상적으로 높다는 인식이 많아서다. 최근 비교적 낮은 가격에 급매물이 나오고 있지만 이들 매물 역시 5년전 가격보다 70% 가량 높은 수준이다. 특히 당시 아파트를 살수 있었던 금액으론 현재 전세살이도 힘들다. 수천만원 호가를 내린 매물들이 외면받는 이유다. 내년까지 급매물은 지속적으로 늘어날 전망이 우세하다. 점차 시장에 급매물들이 쌓일 경우 집값이 더 낮아질 것이란 기대감에 매수 심리가 더욱 위축될 것으로 보인다. 10일 부동산업계에 따르면 시세보다 저렴하게 내놓는 급매물이 증가하고 있지만 정작 내집마련 수요를 비롯한 실수요들은 '버티기'를 지속하고 있는 중이다. [서울=뉴스핌] 김학선 기자 =서울 용산구 일대 아파트 모습. 2022.08.21 yooksa@newspim.com ◆ 5년전 아파트 매매 가능했던 금액, 올해는 전세살이도 어려워 최근 주택시장에는 가격을 비교적 큰 폭으로 낮춘 급매물이 나오고 있다. 집값의 바로미터가 되는 강남4구(강남·서초·송파·강동)도 예외는 아니다. 특히 1000세대 이상 대단지 아파트에서도 수억원이나 떨어진 급매물들이 속속 나오고 있다. 강남구 일원동 지역의 아파트 매매 매물은 294건으로 6개월 전 171건에 비해 71.9% 증가했다. 같은 기간 송파구 잠실동 지역의 매물 역시 557건에서 817건으로 46.6% 증가했다. 강동구 명일동(226건→323건)은 42.9%, 서초구 방배동(481건→641건)은 33.2% 증가했다. 하지만 정작 거래는 활발하게 이뤄지지 않고 있는 모양새다. 호가를 수천만원 내린 매물도 실수요자들에게 외면받고 있다. 문재인 정권이 출범한 2017년 이후 급등한 집값이 여전히 높기 때문이다. KB부동산에 따르면 지난달 기준 전국의 아파트 평균 매매가격은 5억5601만원이다. 이는 2017년 9월(3억2936만원) 대비 68.8% 높은 수치다. 올해 들어 집값이 하락세를 보이고 있지만 여전히 5년 전 가격과 비교하면 70% 가까이 높은 수준이다. 전세가격 역시 크게 올랐다. 전국의 아파트 평균 전세값은 2017년 9월 2억4063만원에서 지난달 3억3855만원으로 40.7% 증가했다. 당시 서울 아파트를 살 수 있던 금액으로는 5년이 지난 지금 전세살이도 어려워진 것이다. 같은기간 서울만 놓고 보면 아파트 평균 매매가격은 2배 가까이 올랐다. 2017년 6억3924만원이었던 서울 아파트 평균 매매가격은 5년만에 99.6% 증가한 12억7624만원으로 급등했다. 경기와 인천 역시 같은 기간 각각 87.2%, 74.9% 증가했다. 지방 5개 광역시(대전·대구·울산·부산·광주) 아파트 평균 매매가도 증가했다. 지난달 기준 매매가격은 3억9928만원으로 2017년(2억6522만원) 대비 50.5% 증가했다. [서울=뉴스핌] 윤창빈 기자 = 서울 송파구 공인중개사에 붙어있는 아파트 매매 시세표의 모습. 2022.02.11 pangbin@newspim.com ◆ "시세 대비 크게 낮은 급매물 거래…2017년 수준 하락 어려울 것" 자금 여력을 갖춘 실수요자의 경우 급매물 거래를 통해 내 집 마련에 나설 여지가 커진 상황이다. 다만 내년까지 금리인상 가능성이 있어 시세 대비해 크게 낮아진 매물만 간간히 거래될 가능성이 크다. 여경희 부동산R114 연구원은 "내 집 마련이 급한 실수요자들이 있어 시세 대비 10% 이상 하락한 매물들 가운데 굉장히 저렴한것 위주로만 꾸준히 거래가 될 것"이라며 "다만 내년 주택 경기도 어려울 것이라고 보는 시각이 있어 절대적으로 매수세가 크게 늘진 않을 것으로 전망된다"고 내다봤다. 여 연구원은 "그동안 집값이 많이 올랐지만 대출이 여의치 않은 부분이 있다"며 "수도권 같은 경우는 조정대상지역이나 투기과열지구로 묶여 있는 지역이 있다보니 지방보다 수요는 많은데 대출은 받기 어렵고, 가격은 더 높아 매수자들 진입장벽을 높이는 요인이 될 수 있다"고 설명했다. 그러면서 "금리 인상에 물가까지 오르는 상황에서 연소득을 한푼도 안쓰고 모아야 집한채를 살 수 있는 수준이 됐다"면서 "아직까지 매수하기에는 주택 가격이 심리적으로 높다고 인식될 수 있다"고 덧붙였다. 다만 2017년도 수준 정도까지 큰 폭으로 집값이 하락하긴 어려울 것이란 전망이 나온다. 여 연구원은 "우리나라 대부분 자산이 부동산 가운데서도 주택에 집중돼있다"면서 "2017년도 수준까지 하락한다면 대출 원리금 상환이 어려워진 하우스 푸어 등 사회적으로 문제가 되는 부분이 있을 것"이라고 말했다. min72@newspim.com 2022-10-10 06:01 尹대통령 지지율, '지지층 결집'에 0.8%p 소폭 반등 32% "美증시, 이번 어닝시즌에 더 떨어진다…애플 실적이 관건" [단독] 경찰 출석하는 박홍률 목포시장...공직선거법위반 혐의 피소 삼성전자 입주한 키이우 건물, 러 미사일에 피격 삼성바이오, 이르면 내일 4공장 가동…이재용 현장 방문 가능성 [주요포토] '법제사법위원회의 감사원 국정감사 한글날 연휴 끝...쌀쌀한 출근길 코스피 2%대 급락, 원·달러 환율 20원대 급등 노동당 77주년 창건일, 고요한 북한 '서울을 달리다' 3년만에 열린 서울세계불꽃축제 ‘2022 정조대왕 능행차 공동재현’ 행사 안다 TV 영상 [영상] ①쿠팡, 미국 공모주 물림의 법칙? 투자직GAM 영상 [투자직감] ①쿠팡, 미국 공모주 물림의 법칙? 회사소개 주요상품 사업제휴 개인정보취급방침 청소년보호정책 고충처리제도 수용자권익보호위원회 이용약관 광고문의 페이스북 네이버 포스트 플립보드 카카오토픽 RSS 한국신문윤리위원회 서울시 영등포구 국제금융로 70, 미원빌딩 906호 편집국 : 02-761-4409 발행인 : 민병복 편집인 : 박승윤 뉴스핌통신등록번호 : 문화,나00032등록일자 및 발행일자 : 2018.3.22 뉴스핌등록번호 : 서울아00194등록일자 및 발행일자 : 2006.4.26 COPYRIGHT©NEWSPIM CO., LTD. ALL RIGHTS RESERVED. Top으로 이동</t>
+  </si>
+  <si>
+    <t>관광1번지 제주도, 전지훈련장으로도 각광 &lt; 스포츠일반 &lt; 스포츠 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 관광1번지 제주도, 전지훈련장으로도 각광 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 스포츠 스포츠일반 관광1번지 제주도, 전지훈련장으로도 각광 기자명 김영하 기자 입력 2015.02.21 11:56 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [제주도민일보=김영하 기자] 제주도가 겨울철 전지훈련지로 각광받고 있다.제주도에 따르면 지난달 전지훈련단 유치실적은 1355개팀 3만3822명이다. 지난해 같은 기간보다 8.6%인 2685명 증가했다.이는 올해 목표인 7만7000명 유치의 44%를 달성한 것이다.이로 인한 경제적 효과는 351억7500만원에 이르는 것으로 분석된다.지역별로는 제주시 717팀 1만2457명을 유치해 129억5500만원의 경제효과를 거둔 것으로 분석됐다. 또 서귀포시는 638팀 2만1365명으로 222만2000만원의 경제효과를 거둔 것으로 나타났다.특히 올해에는 외국 전지훈련단도 제주를 찾아 훈련을 하고 있다. 지난달부터 중국 여자핸드볼 국가대표를 시작으로 중국 여자핸드볼 실험팀, 랴온일홍원 프로축구팀이 전지훈련을 마쳤다. 또 다음 달부터는 한·중 탁구 국가대표팀이 합동 훈련이 예정돼 있다.제주도 관계자는 “지난 2013년 이후 3년간 전지훈련단 유치 증가에 파란색 신호등이 켜질 것으로 기대하고 있다”며 “제주도는 행정시와 체육단체와 함께 여러 종목에 대한 전지훈련단 유치를 위해 지속적으로 유치활동을 전개하기로 했다”고 말했다. 김영하 기자 yhkim9356@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>이보미 선수와 라운드 제주도 관광까지 '1석 2조' 한국관광공사 상품 개발 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 문화 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 문화 &gt; 이보미 선수와 라운드 제주도 관광까지 '1석 2조' 한국관광공사 상품 개발 파이낸셜뉴스입력 2015.02.16 17:34수정 2015.02.16 17:34 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 한국관광공사는 일본에서 활약 중인 여자 프로골퍼 이보미가 참가하는 골프대회 상품을 개발했다고 16일 밝혔다. 오는 21일 제주 중문골프장에서 개최되는 한국관광공사 사장배 골프대회 참가 일본인 관광객 120명이 직접 이보미 선수와 티샷을 경험하고, 세계자연유산 제주도의 주요 관광지를 둘러보는 2박3일 일정을 만끽한다. 이보미는 현재 일본에서 가장 인기가 있는 골프 선수다. 지난해 외국인으로는 역대 두번째로 일본 호치프로 스포츠 대상에서 올해의 골프선수상을 수상했으며, 일본 최고 골프잡지에서 일본 팬들이 선정한 여자골프선수 인기투표 1위를 차지했다. 작년에만도 일본 여자프로골프 투어에서도 우승 3회, 상금 랭킹 3위라는 우수한 성적을 거뒀다. 한국관광공사는 스포츠를 통한 한·일 관광교류 활성화를 위해 지난해 이보미를 한국관광 명예홍보대사로 임명한 바 있다. 한국관광공사는 이번 골프대회와 연계해 이보미가 소개하는 제주관광 특집 TV프로그램 제작도 추진한다. 지상파인 TV도쿄와 BS재팬 위성방송을 통해 4월 일본 전국에 1시간 동안 제주의 관광매력이 방영될 예정이다. 한국관광공사 도쿄지사 강중석 지사장은 "일본 내 호감도가 높은 이보미를 활용한 골프대회와 TV특집 제작이 일본인 관광객 방한시장 회복을 위한 의미있는 마케팅이 될 것으로 기대한다"며 "2015년 한·일 국교정상화 50주년을 기념해 스포츠를 활용한 민간교류 사업이 한·일 관계 개선에도 기여하게 될 것"이라고 밝혔다. yccho@fnnews.com 조용철 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회 회장 3선 성공…지지율 89% | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 김영진 제주도관광협회 회장 3선 성공…지지율 89% 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 김영진 제주도관광협회 회장 3선 성공…지지율 89% 기자정보, 기사등록일 입력 2015-02-15 16:21 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 아주경제 진순현 기자=제주도관광협회 회장에 김영진(49. 사진) 현 회장이 지지율 89%를 얻으며 압도적으로 당선됐다. 제주도관광협회에 따르면 지난 13일 ‘2015년도 제1차 정기 대의원총회’를 열고 제33대 회장 선출을 안건으로 상정, 투표를 진행했다고 15일 밝혔다. 이번 선거에서는 김영진 현 회장과 김희준 나인리조트 대표이사, 장명선 하나호텔 대표가 출사표를 던졌다. 하지만 김희준 나인리조트 대표가 정견발표 도중 ‘사퇴’를 선언하면서 양자구도로 치러지게 됐다. 대의원 선거 방식으로 무기명 비밀투표로 진행된 선거결과, 김 회장이 76표 중 68표를 득표해 지지율 89%로, 8표(11%)를 차지한 장 대표를 압도적으로 누르고 승리했다. 관련기사제주 '황금버스' 8888…섣부른 평가는 금물!제주경제 "새로운 성장을 위한?" 12일 대토론회 개최 ‘젊은 피’ 김 회장은 선거운동 기간 상대방 후보로부터 ‘젊다는 게 흠’이라는 지적을 받아왔다. 이번 당선으로 3선에 성공하면서 경륜도 함께 낚아챘다. ​김 회장은 “IT와 모바일, SNS가 지배하는 이 세상에서 살아남을 수 있는 건 세상에 맞게 변화하는 것” 이라며 “이를 위해 지난해부터 이미 준비해왔다”고 변화를 강조했다. 한편 김 회장은 지난 2011년 2월 선거를 통해 선출돼 전임회장의 잔여임기인 1년간 회장직을 수행했다. 이후 2012년 2월에는 단독후보로 나서 정기대의원 총회에서 만장일치로 제32대 회장에 추대됐다. 김 회장의 이번 임기는 오는 2018년 2월 28일까지다. #관광협회 #김영진 #선거 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4버거에 꽂힌 유통·식품업계 3세들 5원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 6세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 7숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회장 선거 김영진 현 회장 당선..."3선 안착" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회장 선거 김영진 현 회장 당선..."3선 안착" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 피플인뉴스 제주도관광협회장 선거 김영진 현 회장 당선..."3선 안착" 박성우 headlinejeju@headlinejeju.co.kr 승인 2015.02.13 16:53 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 89% 압도적 득표율 기록...임기 3년 제33회 제주특별자치도관광협회 회장에 당선된 김영진 현 회장. &lt;헤드라인제주&gt; 제주특별자치도관광협회 제33대 회장에 김영진 현 회장(49)이 당선돼 내리 3선을 달성했다. 제주도관광협회는 13일 오후 2시 제주웰컴센터에서 2015년도 제1차 제주도관광협회 정기대의원총회를 개최하고, 신임 회장을 선출했다. 90명의 대의원 중 76명이 참석한 가운데, 김영진 회장은 68표를 얻어 총 89%의 득표율을 기록했다. 당초 후보로 등록했던 김희준 제주나인리조트 대표이사(49)가 투표를 앞두고 경쟁후보인 장명선 (주)호텔하나 총괄대표(57)에 대한 지지 의사를 밝히며 불출마를 선언, 선거는 '2파전'으로 치러졌지만, 장명선 후보는 총 8표를 득표해 지난 2011년 선거에 이어 고배를 마셨다. 김 회장은 "그동안 초심을 잃지 않고 관광협회를 이끌어 온 것처럼 앞으로 초심을 잃지 않고, 좀 더 크게, 좀 더 멀리보고, 좀 더 강하게 제주관광 발전을 위해 일하겠다"고 당선 소감을 밝혔다. 구체적 계획에 대한 질문에 "제주관광산업의 구체적인 경쟁력 강화를 추진하고, IT, 모바일 등에 기반한 시장환경 변화에 능동적으로 대응하기 위해 제주관광산업이 IT, 모바일, SNS 등에 기반한 발전환경 조성에 총력을 기울여 나가겠다"고 말했다. 또 "도외 자본이 독점하고 있는 중국시장의 폐해를 극복하기 위한 대형여행사를 설립하고, 관광객 증가가 도민과 관광산업에 실질적인 혜택이 돌아갈 수 있는 과감한 시도를 해나가겠다"고 밝혔다. 김 회장의 임기는 오는 2018년 2월말까지 3년이다. 앞서 김 회장은 지난 2011년 제31대 회장 선거에서 상대 후보였던 장 후보를 제치고 당선된데 이어 이듬해에는 단독 입후보하며 제32대 회장에 추대된 바 있다. &lt;헤드라인제주&gt; 제33회 제주특별자치도관광협회 회장에 당선된 김영진 현 회장. &lt;헤드라인제주&gt; &lt;박성우 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 박성우 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제33대 제주도관광협회장 김영진 당선 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제33대 제주도관광협회장 김영진 당선 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제33대 제주도관광협회장 김영진 당선 기자명 고 미 기자 입력 2015.02.13 16:43 수정 2015.02.13 16:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 13일 선거서 참가 대의원 89%지지 제33대 제주도관광협회장에 김영진 현 회장이 당선됐다.김영진 회장은 13일 제주웰컴센터 1층 웰컴홀에서 진행된 선거에서 참가 유효대의원 76명 중 68명의 지지를 받아 3선에 성공했다. 이번 선거에는 관광협회 사상 처음으로 3명의 후보가 출사표를 던지며 '관광 수장'에 대한 지역의 입지를 확인했다. 하지만 김희준 제주나인리조트 대표가 정견 발표 과정에서 사퇴하며 2파전으로 치러졌고 89%의 득표율을 기록한 김 회장이 최종 낙점됐다. 김 회장은 "환경 변화에 적극 대응하고 제주 관광에 있어 실질적인 경쟁력을 키우라는 요구를 겸허히 받아들이겠다"며 "관광객 증가효과를 도민들이 체감할 수 있도록 최선을 다하겠다"는 말로 소감을 대신했다. 또 "초심을 잃지 않고 계속 크고 멀리 보며 강하게 일하겠다"며 "대형여행사 건립과 ICT산업과 연계해 제주 관광을 성장시키는 데 최선을 다하겠다"고 말했다. 김 회장의 임기는 오는 2018년 2월까지다. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 상반기 제주관광진흥기금 917억 융자지원 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 상반기 제주관광진흥기금 917억 융자지원 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 상반기 제주관광진흥기금 917억 융자지원 기자명 고나연 기자 입력 2015.02.13 13:38 수정 2015.02.13 13:49 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연 기자 = 제주특별자치도는 지난 11일 제주관광진흥기금 운용심의위원회를 개최해 2015년도 상반기 제주관광진흥기금 융자 지원액 917억5천만원을 확정하고 도 홈페이지 등을 통해 공고할 계획이라고 13일 밝혔다.도에 따르면 당초 융자지원 규모는 시설자금 분야 700억원, 운영자금 분야 200억원이었으나 시설자금 신청이 융자규모 대비 3배 이상의 신청이, 운영자금은 지원 규모에 미치지 못해 시설자금 864억3천만원, 운영자금 53억2천만원으로 조정해 지원한다.도는 지난해 11월 기금운용심의회에서 도출된 제도개선안을 반영한 상반기 융자지원 지침에 따라 관광사업체 운영자금 및 노후 전세버스 교체 자금, 개보수 자금을 우선적으로 지원한다.시설자금의 경우는 기준액을 산정해 5억 미만의 사업 5개소는 전액 지원하고 5억 이상 20억 미만 23개소는 기준액의 50%, 20억 이상 50억 미만 25개소는 기준액의 40%, 50억 이상 17개소은 기준액의 30%로 차등 적용했다.상반기 융자지원은 운영자금의 경우 노후 전세버스 교체에 33개업체 50대에 35억9천만원, 여행업 등 관광사업체 운영 6개 사업체 15억3000만원, 일반숙박업 1개소에 개보수비 2억원을 지원한다. 시설자금의 경우 관광호텔 20개소 374억4천만원, 가족호텔 6개소 92억3천만원, 호스텔 31개소 314억9천만원, 휴양펜션 4개소 19억9천원, 관광식당 5개소 21억4천만원, 박물관, 유람선 건조 등에 30억4천만원이 지원된다. 기존 관광시설 개보수비로는 가족호텔, 박물관 등에 11억만원이 지원된다.대출기간은 관광숙박시설 건설인 경우 2년 거치 3년 분할상환이며, 개보수는 1년 거치 3년 분할상환, 운영자금의 경우 1년 거치 2년 분할상환 해야 한다.대출금리는 올해 1/4분기 2.36%의 공자금리가 적용되며 개인, 중소기업의 경우 우대 금리가 적용된다.관계자는 "제주 관광 경쟁력을 높이는 지원 대상을 발굴 지원해 나갈 계획"이라며 "이를 위해 각계각층의 의견을 수렴해 나가겠다"고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-관광협회, 스포츠 교류로 日 관광객 유치 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-관광협회, 스포츠 교류로 日 관광객 유치 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도-관광협회, 스포츠 교류로 日 관광객 유치 기자명 고나연 기자 입력 2015.02.10 16:11 수정 2015.02.10 16:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 제주도와 도관광협회는 일본 와카야마현 아리타시에서 개최된 제7회 아리타시미캉카이도마라톤 대회에 참가해 마라톤 교류 및 일본인 관광객 대상 제주특화 레저스포츠 관광상품 판촉 로드홍보를 전개했다. 사진은 홍보부스 모습. (제주=국제뉴스) 고나연기자 = 외국인관광객 급증에도 불구하고 엔화약세, 일본 장기경기침체 등으로 일본인관광객은 지속 줄어들고 있다. 이에 제주도와 제주도관광협회가 스포츠교류를 통한 일본인 관광객유치에 나서 주목되고 있다.제주특별자치도와 道관광협회(회장 김영진)는 지난 6일부터 9일까지 일본 와카야마현 아리타시에서 개최된 제7회 아리타시미캉카이도마라톤 대회에 참가해 상호 마라톤 교류 및 일본인 관광객 대상 고부가가치 제주특화 레저스포츠 관광상품 판촉 로드홍보를 전개했다고 10일 밝혔다.제주 참가단은 아리타시관광협회와의 간담회를 통해 올해 5월31일 개최되는 제20회 제주국제관광마라톤축제 일본인 참가자 유치 확대 및 침체되는 일본인 관광객 유치를 위해 상호 적극 노력하기로 했다고 설명했다.또한 아리타시관광협회 기모토 이사는 회원사를 중심으로 제주지역 레저스포츠 패키지 상품 개발을 통해 일본인 참가자 유치 확대를 약속했다. 이와 함께 모치즈키 요시오 아리타시 시장은 시의원을 비롯한 10여명의 교류단과 함께 제20회 제주국제관광마라톤축제에 참가하겠다는 의사를 표명했다.관계자는 "앞으로 도관광협회는 침체된 일본 인바운드 시장의 조기 활성화를 위해 지속적인 스포츠 교류 확대를 벌일 예정”이라며 “이와 함께 도내 여행업계와 공동으로 한일수교 50주년 연계 상품 개발, 일본인 관광객 유치 대책 협의회 운영을 통한 다양한 마케팅 방안 등을 모색해 나갈 계획"이라고 말했다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
   </si>
   <si>
     <t>서울-제주도, 관광등 교류 활성화 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 서울-제주도, 관광등 교류 활성화 파이낸셜뉴스입력 2015.02.10 13:21수정 2015.02.10 13:21 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 서울시와 제주도가 중국 등 해외 관광객을 위해 관광상품을 공동 개발하는 등 앞으로 양 시·도간 교류가 보다 활발해진다. 또 양 시·도는 전기자동차 등 신재생에너지 활성화를 위해 협력을 강화하고 특히 서울시는 각종 직거래장터에 제주산 농·특산물 참여를 확대시키기로 했다. 박원순 서울시장과 원희룡 제주도지사는 10일 서울시청에서 두 지역간 보유하고 있는 자원을 최대한 공유하고 문화·관광, 신재생에너지 사업모델 등 혁신 정책을 추진하는 내용의 우호교류협약을 체결했다. 이번 협약은 지난해 10월 아름다운 제주 국제 마라톤 대회에 참가한 박 시장과 원 지사의 양 시도간 교류협력 활성화 논의과정에서 시작됐다. 먼저 양 시도는 신재생에너지에 대한 공감대 형성을 위해 '제주 국제 전기자동차 엑스포', '이클레이 서울총회' 등 다양한 국제 행사를 상호 후원하고 전기자동차 공동구매를 추진하기로 했다. 또한 매년 늘고 있는 중국관광객을 대상으로 '서울-제주 원스톱 관광상품'을 개발한다. 서울의 명동, 경복궁, 신사동 등과 제주의 올레길, 트래킹코스 등 관광자원을 연계한 코스를 제안하는 것이다. 아울러 제주도 유휴 국·공유지를 활용해 서울시민을 위한 자연친화적 캠핑촌을 조성하고 제주 도심 내에는 서울시민과 제주도민이 문화와 예술을 교류할 수 있는 창작공간을 마련하기로 했다. 서울시가 개최하는 직거래 장터에 제주도 농산물 참여규모를 늘리고 서울시 친환경 유통센터에 제주산 청정 농수산물 공급을 확대하는 안도 포함됐다. 원희룡 지사는 이날 협약 체결 후 서울시 공무원을 대상으로 행정혁신에 대한 고민, 타지역과의 상생방안 등을 주제로 특강을 했다. dikim@fnnews.com 김두일 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
@@ -61,16 +139,16 @@
     <t>SBS Biz : 의견 있는 경제채널</t>
   </si>
   <si>
-    <t>제주도관광협회장 3파전...누가 웃을까? &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 09:44 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주, 시간당 20mm 내외 강한 비…기온 큰 폭으로 ‘뚝↓’ [10월 4일] 제주도지사·도의장·도교육감·시장 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회장 3파전...누가 웃을까? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회장 3파전...누가 웃을까? 기자명 문준영 기자					(moonsoyo@jejusori.net) 입력 2015.02.03 18:24 댓글 2 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 김영진vs김희준vs장명선...13일 대의원 총회서 결정 ▲ 제33대 제주도관광협회장 선거 입후보자. 왼쪽부터 김영진(49) 현 회장, 김희준(49) 제주나인리조트 대표이사, 장명선(57) (주)호텔하나 총괄대표. ⓒ 제주의소리 1112개의 업체를 회원사로 둔 제주관광산업의 중추조직 제주특별자치도관광협회장 선거가 3파전으로 진행된다.제주도관광협회 선거관리위원회(위원장 문대림)는 2일부터 3일까지 제33대 제주도관광협회장 선거 입후보자 등록 접수마감 결과 김영진(49) 현 회장, 김희준(49) 제주나인리조트 대표이사, 장명선(57) (주)호텔하나 총괄대표 등 총 3명이 접수했다고 발표했다. 당초 김영진 회장과 장명선 총괄대표의 격돌이 예상됐으나, 이후 김희준 대표이사가 마음을 굳히면서 3파전으로 치러지게 됐다.세 후보가 내건 공약과 슬로건은 제각각이다.김영진 회장은 종합비즈니스센터 추진, 제주형 포털사이트 구축 등 본격적으로 시작한 일들을 정착시키기 위해 재출마의 변을 밝히고 있다. 김희준 대표이사는 "제주관광협회의 잘못된 질서를 메가톤급 개혁을 통해 바로잡겠다"며 "1100여 회원사가 주인이 되는 협회로 만들겠다"고 포부를 밝힌다. 장명선 총괄대표는 "새로운 변화가 필요하다"며 '고품격 행복관광'으로의 질적변화를 실현시키기 위해 출사표를 던졌다고 말한다. 지난 2011년 3월 31대 선거에서는 김영진 회장과 장명선 총괄대표가 맞붙어 김 회장이 승리를 거뒀고, 2012년 2월에는 김영진 회장이 단독출마해 32대 회장에 추대됐다. 선거관리위원회는 오는 4일 오후 5시 회의를 개최해 후보등록 구비서류 검토와 함께, 후보자 기호를 선출하는 등 본격적으로 선거 준비에 들어갈 예정이다.선거는 오는 13일 오후 2시 제주웰컴센터 1층 웰컴홀에서 무기명 비밀투표로 선출된다. 재적 대의원 과반수 출석과 출석대의원 과반수의 득표로 당선된다. 문준영 기자 moonsoyo@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 4 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 5 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래처럼 일 못하는 고문관 새끼들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 전문가인척 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 8 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 9 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 10 현병찬교장선생님 축하드립니다 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회 회장선거 3명 입후보 3파전...본격 득표전 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' [특징주] 캐스텍코리아 주가 상한가 '포르쉐 상장 시총 4위' [특징주] 오성첨단소재 주가 상한가 '상장적격성 실질심사 제외' 2022-10-04 10:00 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 회장선거 3명 입후보 3파전...본격 득표전 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회 회장선거 3명 입후보 3파전...본격 득표전 기자명 고나연 기자 입력 2015.02.03 21:14 수정 2015.02.03 21:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도관광협회 선거관리위원회(위원장 문대림)는 2일부터 3일까지 제33대 제주특별자치도관광협회장 선거 입후보자 등록 접수마감 결과 총3명이 접수돼 치열한 선거전이 펼쳐 질 전망이다.이번 관광협회 회장선거에는 김영진 현 회장이외에 김희준 제주나인리조트 대표이사, 장명선 한영그룹 (주)호텔하나 총괄대표/총지배인 등이 3명이 입후보해 본격 득표전에 뛰어들었다.이에 선거관리위원회는 이날 3명이 후보자가 등록함에 따라 4일 오후 5시 선거관리위원회를 개최해 후보등록 구비서류 검토와 후보자 기호를 선출하는 등 본격 관광협회 회장 선거 준비에 들어갈 예정이다. 한편 제33대 제주특별자치도관광협회장 선거는 13일 오후 2시 제주웰컴센터 1층 웰컴홀에서 무기명 비밀투표로 선출하고, 재적 대의원 과반수 출석과 출석대의원 과반수의 득표로 당선된다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 최신뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 전남도, 문화재 활용사업 7개 분야 70억 확보 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 포토뉴스 제네시스, KPGA '2022 제네시스 챔피언십' 6일 개막 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 대전 0시 뮤직페스티벌, 7일부터 10일까지 대흥동 원도심에서 개최 천안시시설관리공단 재활용선별장, 폐플라스틱 순환경제체계 전환 앞장 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도관광협회장 선거 김영진 현 회장 출마 공식선언 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회장 선거 김영진 현 회장 출마 공식선언 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 피플인뉴스 제주도관광협회장 선거 김영진 현 회장 출마 공식선언 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.02.03 12:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 오늘 후보 등록 마감...13일 선거 김영진 제주관광협회장.&lt;헤드라인제주&gt; 제주특별자치도관광협회 제33대 회장 선거가 오는 2월13일 실시되는 가운데, 김영진 현 회장이 3일 '출마를 공식 선언했다. 김 회장은 후보자 등록 마감일인 이날 '출마의 변'을 통해 재선 도전 의사를 밝혔다. 잔여임기 1년의 제31대 회장과 제32대 회장을 역임한 김 회장은 "제가 회장에 취임할 당시 관광협회는 관광공사 출범에 따른 조직간 역할 정립을 둘러싼 혼선, 관광업계에 대한 관광협회의 리더쉽 부재, 자생력 부족 등 관광협회의 장기적인 발전가능성 부재 등의 문제에 직면해 있었다"면서 "지난 4년 사심없이 치열하게 일을 해 오면서 조직시스템을 탄탄히 만드는 등 많은 성과를 냈다"고 자평했다. 김 회장은 "이제 심을 잊어버리지 않고, 그 초심의 바탕위에서 여러분과 함께 다시 더 큰 길을 걷고자 제33대 회장에 재입후보 하려 한다"면서 "앞으로 협회가 나아갈 길을 도민 체감형 신관광 산업생태계 조성을 주도적으로 실현하는데 두고 구체적인 실천전략을 수립해 나가겠다"고 밝혔다. 그는 "먼저 고품격 질적성장을 통한 도민소득 증대 및 고객만족 향상을 위해 1, 2, 3차 융복합 관광상품 개발을 통한 도민체감형 관광산업을 구체화하고, 관광사업체 네트워킹 및 커뮤니케이션 시스템속에 다양한 도민들의 연관 사업들을 포함시키고, 관광인력 관리 체계화를 통한 고용지원시스템 구축 및 고객만족도 극대화를 위한 품질관리 및 서비스개선 활동을 전개해 나가겠다"고 피력했다. 또 "관광산업 경쟁력 강화를 위한 전략적인 투자를 지속해 나가겠다"며 "IT기반 e마케팅지원시스템 구축사업이 투명하게 차질없이 진행되도록 해나감과 동시에 중국시장에 대한 도전을 위한 대형여행사 설립 추진, 시장다변화, 여행업 전문화 등 경쟁력 강화사업 전개, 업종별 경쟁력 강화를 위한 업종별 경쟁력 강화 소위원회 구성 등을 해 나가겠다"고 약속했다. 그는 "관광협회 자생력 강화 및 사회적 공헌활동을 지속적으로 추진하겠다"며 "제가 취임이후 자생력 강화를 위한 다양한 활동을 위한 사업들을 전개해 왔는데 이러한 사업들이 결실을 볼 수 있도록 해 나가겠다"고 말했다. 제주도관광협회 선거관리위원회(위원장 문대림)는 2일부터 3일까지 입후보자 원서접수를 받은 후 13일 대의원 총회를 개최해 신임 회장을 선출할 예정이다. 이번 선거에서는 현직 회장과 더불어 장명선 제주하나호텔 대표가 출마채비를 하는것으로 알려지면서 2~3파전 구도가 예상된다. 회장의 임기는 3년이다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주관광협회장 후보등록 마감...김영진-김희준-장명선 '3파전' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도 관광협회장 첫 '3파전' &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도 관광협회장 첫 '3파전' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제주도 관광협회장 첫 '3파전' 기자명 고 미 기자 입력 2015.02.01 18:41 수정 2015.02.01 20:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 김희준 전 대한주택건설협회 도회장 출마 공식화 김영진·장명선과 경합…'민간 수장' 역할 부상 ▲ 장명선 대표▲ 김희준 대표▲ 김영진 회장제33대 제주도관광협회장 선거가 협회 사상 첫 '3파전'으로 치러진다. '임기 3년의 명예직'이기는 하지만 최근 지역 관광산업 부흥 등의 분위기 속에 민간 '제주 관광 수장'역할론이 부각된 때문으로 분석되고 있다. 현 김영진 회장(49)과 장명선 제주하나호텔 대표(58)가 일찌감치 회장 선거 출마 의사를 공식화한 가운데 김희준 전 대한주택건설협회 도회장(49·한빛종합건설㈜ 대표)이 1일 최종 출사표를 던졌다. 김희준 대표는 1일 "관광 대표 단체로 협회를 거듭나게 하기 위해서는 변화가 필요하다"며 "정관에서부터 운영까지 불합리하다 느껴왔던 일들을 이를 통해 개선하고 싶다"고 밝혔다. 김 대표는 6·7·8대 대한주택건설협회 도회장을 지냈다.  김 대표의 출마 선언으로 이번 도관광협회 선거는 '3번째 수성' '4년만의 재대결' '신인 탄생'을 건 3명 후보의 경합으로 뜨거울 전망이다. 하지만 선거 규정 상 후보 등록 후 48시간 안에 '철회' 가능하다는 점에서 최종 후보군은 다소 유보적이다. 한편 제33대 제주도관광협회장 선거는 오는 13일 치러진다. 고 미 기자 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+    <t>제주도관광협회장 3파전...누가 웃을까? &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 11:41 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 제주도교육청-대학 간 교육 협력 제도화 조례 제정 ‘시동’ JDC, 제주도-첨단과기단지 투자기업 '파트너스데이' 제주도 중학교 과밀학급 29.8%...전국 2위 ‘콩나물 교실’ 여전 제주도, 민간일자리 창출 소상공인에 사회보험료 전액 지원 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회장 3파전...누가 웃을까? 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회장 3파전...누가 웃을까? 기자명 문준영 기자					(moonsoyo@jejusori.net) 입력 2015.02.03 18:24 댓글 2 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 김영진vs김희준vs장명선...13일 대의원 총회서 결정 ▲ 제33대 제주도관광협회장 선거 입후보자. 왼쪽부터 김영진(49) 현 회장, 김희준(49) 제주나인리조트 대표이사, 장명선(57) (주)호텔하나 총괄대표. ⓒ 제주의소리 1112개의 업체를 회원사로 둔 제주관광산업의 중추조직 제주특별자치도관광협회장 선거가 3파전으로 진행된다.제주도관광협회 선거관리위원회(위원장 문대림)는 2일부터 3일까지 제33대 제주도관광협회장 선거 입후보자 등록 접수마감 결과 김영진(49) 현 회장, 김희준(49) 제주나인리조트 대표이사, 장명선(57) (주)호텔하나 총괄대표 등 총 3명이 접수했다고 발표했다. 당초 김영진 회장과 장명선 총괄대표의 격돌이 예상됐으나, 이후 김희준 대표이사가 마음을 굳히면서 3파전으로 치러지게 됐다.세 후보가 내건 공약과 슬로건은 제각각이다.김영진 회장은 종합비즈니스센터 추진, 제주형 포털사이트 구축 등 본격적으로 시작한 일들을 정착시키기 위해 재출마의 변을 밝히고 있다. 김희준 대표이사는 "제주관광협회의 잘못된 질서를 메가톤급 개혁을 통해 바로잡겠다"며 "1100여 회원사가 주인이 되는 협회로 만들겠다"고 포부를 밝힌다. 장명선 총괄대표는 "새로운 변화가 필요하다"며 '고품격 행복관광'으로의 질적변화를 실현시키기 위해 출사표를 던졌다고 말한다. 지난 2011년 3월 31대 선거에서는 김영진 회장과 장명선 총괄대표가 맞붙어 김 회장이 승리를 거뒀고, 2012년 2월에는 김영진 회장이 단독출마해 32대 회장에 추대됐다. 선거관리위원회는 오는 4일 오후 5시 회의를 개최해 후보등록 구비서류 검토와 함께, 후보자 기호를 선출하는 등 본격적으로 선거 준비에 들어갈 예정이다.선거는 오는 13일 오후 2시 제주웰컴센터 1층 웰컴홀에서 무기명 비밀투표로 선출된다. 재적 대의원 과반수 출석과 출석대의원 과반수의 득표로 당선된다. 문준영 기자 moonsoyo@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회장 선거 김영진 현 회장 출마 공식선언 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 11:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회장 선거 김영진 현 회장 출마 공식선언 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 피플인뉴스 제주도관광협회장 선거 김영진 현 회장 출마 공식선언 원성심 headlinejeju@headlinejeju.co.kr 승인 2015.02.03 12:43 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 오늘 후보 등록 마감...13일 선거 김영진 제주관광협회장.&lt;헤드라인제주&gt; 제주특별자치도관광협회 제33대 회장 선거가 오는 2월13일 실시되는 가운데, 김영진 현 회장이 3일 '출마를 공식 선언했다. 김 회장은 후보자 등록 마감일인 이날 '출마의 변'을 통해 재선 도전 의사를 밝혔다. 잔여임기 1년의 제31대 회장과 제32대 회장을 역임한 김 회장은 "제가 회장에 취임할 당시 관광협회는 관광공사 출범에 따른 조직간 역할 정립을 둘러싼 혼선, 관광업계에 대한 관광협회의 리더쉽 부재, 자생력 부족 등 관광협회의 장기적인 발전가능성 부재 등의 문제에 직면해 있었다"면서 "지난 4년 사심없이 치열하게 일을 해 오면서 조직시스템을 탄탄히 만드는 등 많은 성과를 냈다"고 자평했다. 김 회장은 "이제 심을 잊어버리지 않고, 그 초심의 바탕위에서 여러분과 함께 다시 더 큰 길을 걷고자 제33대 회장에 재입후보 하려 한다"면서 "앞으로 협회가 나아갈 길을 도민 체감형 신관광 산업생태계 조성을 주도적으로 실현하는데 두고 구체적인 실천전략을 수립해 나가겠다"고 밝혔다. 그는 "먼저 고품격 질적성장을 통한 도민소득 증대 및 고객만족 향상을 위해 1, 2, 3차 융복합 관광상품 개발을 통한 도민체감형 관광산업을 구체화하고, 관광사업체 네트워킹 및 커뮤니케이션 시스템속에 다양한 도민들의 연관 사업들을 포함시키고, 관광인력 관리 체계화를 통한 고용지원시스템 구축 및 고객만족도 극대화를 위한 품질관리 및 서비스개선 활동을 전개해 나가겠다"고 피력했다. 또 "관광산업 경쟁력 강화를 위한 전략적인 투자를 지속해 나가겠다"며 "IT기반 e마케팅지원시스템 구축사업이 투명하게 차질없이 진행되도록 해나감과 동시에 중국시장에 대한 도전을 위한 대형여행사 설립 추진, 시장다변화, 여행업 전문화 등 경쟁력 강화사업 전개, 업종별 경쟁력 강화를 위한 업종별 경쟁력 강화 소위원회 구성 등을 해 나가겠다"고 약속했다. 그는 "관광협회 자생력 강화 및 사회적 공헌활동을 지속적으로 추진하겠다"며 "제가 취임이후 자생력 강화를 위한 다양한 활동을 위한 사업들을 전개해 왔는데 이러한 사업들이 결실을 볼 수 있도록 해 나가겠다"고 말했다. 제주도관광협회 선거관리위원회(위원장 문대림)는 2일부터 3일까지 입후보자 원서접수를 받은 후 13일 대의원 총회를 개최해 신임 회장을 선출할 예정이다. 이번 선거에서는 현직 회장과 더불어 장명선 제주하나호텔 대표가 출마채비를 하는것으로 알려지면서 2~3파전 구도가 예상된다. 회장의 임기는 3년이다. &lt;헤드라인제주&gt; &lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주관광협회장 후보등록 마감...김영진-김희준-장명선 '3파전' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." "제주어는 소중한 문화유산...보전.육성 법제화, 사용 확산 추진" 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 10 제주꿈바당어린이도서관, 개관 5주년 기념 책 축제 15일 개최 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광협회장 첫 '3파전' &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도 관광협회장 첫 '3파전' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제주도 관광협회장 첫 '3파전' 기자명 고 미 기자 입력 2015.02.01 18:41 수정 2015.02.01 20:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 김희준 전 대한주택건설협회 도회장 출마 공식화 김영진·장명선과 경합…'민간 수장' 역할 부상 ▲ 장명선 대표▲ 김희준 대표▲ 김영진 회장제33대 제주도관광협회장 선거가 협회 사상 첫 '3파전'으로 치러진다. '임기 3년의 명예직'이기는 하지만 최근 지역 관광산업 부흥 등의 분위기 속에 민간 '제주 관광 수장'역할론이 부각된 때문으로 분석되고 있다. 현 김영진 회장(49)과 장명선 제주하나호텔 대표(58)가 일찌감치 회장 선거 출마 의사를 공식화한 가운데 김희준 전 대한주택건설협회 도회장(49·한빛종합건설㈜ 대표)이 1일 최종 출사표를 던졌다. 김희준 대표는 1일 "관광 대표 단체로 협회를 거듭나게 하기 위해서는 변화가 필요하다"며 "정관에서부터 운영까지 불합리하다 느껴왔던 일들을 이를 통해 개선하고 싶다"고 밝혔다. 김 대표는 6·7·8대 대한주택건설협회 도회장을 지냈다.  김 대표의 출마 선언으로 이번 도관광협회 선거는 '3번째 수성' '4년만의 재대결' '신인 탄생'을 건 3명 후보의 경합으로 뜨거울 전망이다. 하지만 선거 규정 상 후보 등록 후 48시간 안에 '철회' 가능하다는 점에서 최종 후보군은 다소 유보적이다. 한편 제33대 제주도관광협회장 선거는 오는 13일 치러진다. 고 미 기자 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 회장선거 3명 입후보 3파전...본격 득표전 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 회장선거 3명 입후보 3파전...본격 득표전 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회 회장선거 3명 입후보 3파전...본격 득표전 기자명 고나연 기자 입력 2015.02.03 21:14 수정 2015.02.03 21:20 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고나연기자 = 제주특별자치도관광협회 선거관리위원회(위원장 문대림)는 2일부터 3일까지 제33대 제주특별자치도관광협회장 선거 입후보자 등록 접수마감 결과 총3명이 접수돼 치열한 선거전이 펼쳐 질 전망이다.이번 관광협회 회장선거에는 김영진 현 회장이외에 김희준 제주나인리조트 대표이사, 장명선 한영그룹 (주)호텔하나 총괄대표/총지배인 등이 3명이 입후보해 본격 득표전에 뛰어들었다.이에 선거관리위원회는 이날 3명이 후보자가 등록함에 따라 4일 오후 5시 선거관리위원회를 개최해 후보등록 구비서류 검토와 후보자 기호를 선출하는 등 본격 관광협회 회장 선거 준비에 들어갈 예정이다. 한편 제33대 제주특별자치도관광협회장 선거는 13일 오후 2시 제주웰컴센터 1층 웰컴홀에서 무기명 비밀투표로 선출하고, 재적 대의원 과반수 출석과 출석대의원 과반수의 득표로 당선된다. 고나연 기자 kys749@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
   </si>
 </sst>
 </file>
@@ -428,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +528,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -461,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -471,6 +549,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -480,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,7 +583,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -512,6 +593,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -521,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -532,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -541,6 +625,217 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
